--- a/bulletin/macroeconomics/static/macroeconomics/tables/government_budget_revenue_execution.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/government_budget_revenue_execution.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA177267-05FB-404E-8E07-F22D61192693}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3368404-9BA5-4D6C-A53D-2466280B7AD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Показатели</t>
   </si>
@@ -37,12 +37,6 @@
     <t>20 248 101</t>
   </si>
   <si>
-    <t xml:space="preserve">Налоговые поступления. </t>
-  </si>
-  <si>
-    <t>в том числе:</t>
-  </si>
-  <si>
     <t>14 843 311</t>
   </si>
   <si>
@@ -71,6 +65,9 @@
   </si>
   <si>
     <t>I. Доходы</t>
+  </si>
+  <si>
+    <t>Налоговые поступления. в том числе:</t>
   </si>
 </sst>
 </file>
@@ -106,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,32 +389,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>2020</v>
       </c>
-      <c r="D1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>2022</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -440,9 +447,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>14521191</v>
@@ -469,9 +476,9 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>8561203</v>
@@ -486,7 +493,7 @@
         <v>125.3</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>138.4</v>
@@ -498,244 +505,245 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2043659</v>
+      </c>
+      <c r="C5">
+        <v>103.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2828100</v>
+      </c>
+      <c r="E5">
+        <v>138.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3962496</v>
+      </c>
+      <c r="G5">
+        <v>140.1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1842131</v>
+      </c>
+      <c r="I5">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>929588</v>
+      </c>
+      <c r="C6">
+        <v>106.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1134136</v>
+      </c>
+      <c r="E6">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1499712</v>
+      </c>
+      <c r="G6">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>652267</v>
+      </c>
+      <c r="I6">
+        <v>126.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>2043659</v>
-      </c>
-      <c r="C6">
-        <v>103.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2828100</v>
-      </c>
-      <c r="E6">
-        <v>138.4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3962496</v>
-      </c>
-      <c r="G6">
-        <v>140.1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1842131</v>
-      </c>
-      <c r="I6">
+      <c r="B7" s="1">
+        <v>727139</v>
+      </c>
+      <c r="C7">
+        <v>104.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>841279</v>
+      </c>
+      <c r="E7">
         <v>115.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F7" s="1">
+        <v>1035129</v>
+      </c>
+      <c r="G7">
+        <v>123</v>
+      </c>
+      <c r="H7" s="1">
+        <v>388885</v>
+      </c>
+      <c r="I7">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>929588</v>
-      </c>
-      <c r="C7">
-        <v>106.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1134136</v>
-      </c>
-      <c r="E7">
-        <v>122</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1499712</v>
-      </c>
-      <c r="G7">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>652267</v>
-      </c>
-      <c r="I7">
-        <v>126.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>2532524</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2807691</v>
+      </c>
+      <c r="E8">
+        <v>110.9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4226359</v>
+      </c>
+      <c r="G8">
+        <v>150.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1631631</v>
+      </c>
+      <c r="I8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>727139</v>
-      </c>
-      <c r="C8">
-        <v>104.4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>841279</v>
-      </c>
-      <c r="E8">
-        <v>115.7</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1035129</v>
-      </c>
-      <c r="G8">
-        <v>123</v>
-      </c>
-      <c r="H8" s="1">
-        <v>388885</v>
-      </c>
-      <c r="I8">
-        <v>124.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="1">
+        <v>432653</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1">
+        <v>468483</v>
+      </c>
+      <c r="E9">
+        <v>108.3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>757267</v>
+      </c>
+      <c r="G9">
+        <v>161.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>242919</v>
+      </c>
+      <c r="I9">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>2532524</v>
-      </c>
-      <c r="C9">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2807691</v>
-      </c>
-      <c r="E9">
-        <v>110.9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4226359</v>
-      </c>
-      <c r="G9">
-        <v>150.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1631631</v>
-      </c>
-      <c r="I9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>1063286</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1">
+        <v>414431</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>584848</v>
+      </c>
+      <c r="G10">
+        <v>141.1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>133272</v>
+      </c>
+      <c r="I10">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>432653</v>
-      </c>
-      <c r="C10">
-        <v>126</v>
-      </c>
-      <c r="D10" s="1">
-        <v>468483</v>
-      </c>
-      <c r="E10">
-        <v>108.3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>757267</v>
-      </c>
-      <c r="G10">
-        <v>161.6</v>
-      </c>
-      <c r="H10" s="1">
-        <v>242919</v>
-      </c>
-      <c r="I10">
-        <v>131.30000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" s="1">
+        <v>126702</v>
+      </c>
+      <c r="C11">
+        <v>107.8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>208728</v>
+      </c>
+      <c r="E11">
+        <v>164.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>239941</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1">
+        <v>41701</v>
+      </c>
+      <c r="I11">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <v>1063286</v>
-      </c>
-      <c r="C11">
-        <v>300</v>
-      </c>
-      <c r="D11" s="1">
-        <v>414431</v>
-      </c>
-      <c r="E11">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1">
-        <v>584848</v>
-      </c>
-      <c r="G11">
-        <v>141.1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>133272</v>
-      </c>
-      <c r="I11">
-        <v>128.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" s="1">
-        <v>126702</v>
+        <v>4770000</v>
       </c>
       <c r="C12">
-        <v>107.8</v>
+        <v>155.4</v>
       </c>
       <c r="D12" s="1">
-        <v>208728</v>
+        <v>4499953</v>
       </c>
       <c r="E12">
-        <v>164.7</v>
+        <v>94.3</v>
       </c>
       <c r="F12" s="1">
-        <v>239941</v>
+        <v>4580000</v>
       </c>
       <c r="G12">
-        <v>115</v>
+        <v>101.8</v>
       </c>
       <c r="H12" s="1">
-        <v>41701</v>
+        <v>1374820</v>
       </c>
       <c r="I12">
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4770000</v>
-      </c>
-      <c r="C13">
-        <v>155.4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4499953</v>
-      </c>
-      <c r="E13">
-        <v>94.3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4580000</v>
-      </c>
-      <c r="G13">
-        <v>101.8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1374820</v>
-      </c>
-      <c r="I13">
         <v>91.9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/government_budget_revenue_execution.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/government_budget_revenue_execution.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3368404-9BA5-4D6C-A53D-2466280B7AD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>Показатели</t>
   </si>
   <si>
-    <t>2023 янв-апрель</t>
-  </si>
-  <si>
     <t>Исполнение</t>
   </si>
   <si>
@@ -61,20 +57,237 @@
     <t>Поступления от продажи основного капитала</t>
   </si>
   <si>
-    <t>Поступления трансфертов</t>
-  </si>
-  <si>
-    <t>I. Доходы</t>
-  </si>
-  <si>
-    <t>Налоговые поступления. в том числе:</t>
+    <t>2023 янв-июль</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 805 461</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 112,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 048 356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 124,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 656 925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 120,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 131 883</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  709 638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 125,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 930 894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 139,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  462 927</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 119,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  246 289</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  82 296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  64,4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Доходы</t>
+    </r>
+  </si>
+  <si>
+    <t>14 521 191</t>
+  </si>
+  <si>
+    <t>113,8</t>
+  </si>
+  <si>
+    <t>15 847 431</t>
+  </si>
+  <si>
+    <t>109,1</t>
+  </si>
+  <si>
+    <t>127,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Налоговые поступления. </t>
+  </si>
+  <si>
+    <t>в том числе:</t>
+  </si>
+  <si>
+    <t>8 561 203</t>
+  </si>
+  <si>
+    <t>92,9</t>
+  </si>
+  <si>
+    <t>10 724 319</t>
+  </si>
+  <si>
+    <t>125,3</t>
+  </si>
+  <si>
+    <t>138,4</t>
+  </si>
+  <si>
+    <t>2 043 659</t>
+  </si>
+  <si>
+    <t>103,5</t>
+  </si>
+  <si>
+    <t>2 828 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 962 496</t>
+  </si>
+  <si>
+    <t>140,1</t>
+  </si>
+  <si>
+    <t>929 588</t>
+  </si>
+  <si>
+    <t>106,1</t>
+  </si>
+  <si>
+    <t>1 134 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 499 712</t>
+  </si>
+  <si>
+    <t>132,2</t>
+  </si>
+  <si>
+    <t>727 139</t>
+  </si>
+  <si>
+    <t>104,4</t>
+  </si>
+  <si>
+    <t>841 279</t>
+  </si>
+  <si>
+    <t>115,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 035 129</t>
+  </si>
+  <si>
+    <t>123,0</t>
+  </si>
+  <si>
+    <t>2 532 524</t>
+  </si>
+  <si>
+    <t>94,0</t>
+  </si>
+  <si>
+    <t>2 807 691</t>
+  </si>
+  <si>
+    <t>110,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 226 359</t>
+  </si>
+  <si>
+    <t>150,5</t>
+  </si>
+  <si>
+    <t>432 653</t>
+  </si>
+  <si>
+    <t>126,0</t>
+  </si>
+  <si>
+    <t>468 483</t>
+  </si>
+  <si>
+    <t>108,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  757 267</t>
+  </si>
+  <si>
+    <t>161,6</t>
+  </si>
+  <si>
+    <t>1 063 286</t>
+  </si>
+  <si>
+    <t>300,0</t>
+  </si>
+  <si>
+    <t>414 431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  584 848</t>
+  </si>
+  <si>
+    <t>141,1</t>
+  </si>
+  <si>
+    <t>126 702</t>
+  </si>
+  <si>
+    <t>107,8</t>
+  </si>
+  <si>
+    <t>208 728</t>
+  </si>
+  <si>
+    <t>164,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  239 941</t>
+  </si>
+  <si>
+    <t>115,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +295,112 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -99,15 +408,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,7 +667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -381,368 +844,363 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="18">
         <v>2020</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18">
         <v>2021</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18">
         <v>2022</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:9" ht="27" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14521191</v>
-      </c>
-      <c r="C3">
-        <v>113.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15847431</v>
-      </c>
-      <c r="E3">
-        <v>109.1</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>127.8</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7515023</v>
-      </c>
-      <c r="I3">
-        <v>114.1</v>
+      <c r="G4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8561203</v>
-      </c>
-      <c r="C4">
-        <v>92.9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10724319</v>
-      </c>
-      <c r="E4">
-        <v>125.3</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" thickBot="1">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>138.4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5965230</v>
-      </c>
-      <c r="I4">
-        <v>121.3</v>
+      <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" ht="27" thickBot="1">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>2043659</v>
-      </c>
-      <c r="C5">
-        <v>103.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2828100</v>
-      </c>
-      <c r="E5">
-        <v>138.4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3962496</v>
-      </c>
-      <c r="G5">
-        <v>140.1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1842131</v>
-      </c>
-      <c r="I5">
-        <v>115.7</v>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="16">
+        <v>122</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:9" ht="27" thickBot="1">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>929588</v>
-      </c>
-      <c r="C6">
-        <v>106.1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1134136</v>
-      </c>
-      <c r="E6">
-        <v>122</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1499712</v>
-      </c>
-      <c r="G6">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="H6" s="1">
-        <v>652267</v>
-      </c>
-      <c r="I6">
-        <v>126.4</v>
+      <c r="B8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9" ht="27" thickBot="1">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>727139</v>
-      </c>
-      <c r="C7">
-        <v>104.4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>841279</v>
-      </c>
-      <c r="E7">
-        <v>115.7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1035129</v>
-      </c>
-      <c r="G7">
-        <v>123</v>
-      </c>
-      <c r="H7" s="1">
-        <v>388885</v>
-      </c>
-      <c r="I7">
-        <v>124.7</v>
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>2532524</v>
-      </c>
-      <c r="C8">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2807691</v>
-      </c>
-      <c r="E8">
-        <v>110.9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4226359</v>
-      </c>
-      <c r="G8">
-        <v>150.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1631631</v>
-      </c>
-      <c r="I8">
-        <v>132</v>
+      <c r="B10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>432653</v>
-      </c>
-      <c r="C9">
-        <v>126</v>
-      </c>
-      <c r="D9" s="1">
-        <v>468483</v>
-      </c>
-      <c r="E9">
-        <v>108.3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>757267</v>
-      </c>
-      <c r="G9">
-        <v>161.6</v>
-      </c>
-      <c r="H9" s="1">
-        <v>242919</v>
-      </c>
-      <c r="I9">
-        <v>131.30000000000001</v>
+      <c r="B11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="16">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:9" ht="23.25" thickBot="1">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>1063286</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="D10" s="1">
-        <v>414431</v>
-      </c>
-      <c r="E10">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1">
-        <v>584848</v>
-      </c>
-      <c r="G10">
-        <v>141.1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>133272</v>
-      </c>
-      <c r="I10">
-        <v>128.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>126702</v>
-      </c>
-      <c r="C11">
-        <v>107.8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>208728</v>
-      </c>
-      <c r="E11">
-        <v>164.7</v>
-      </c>
-      <c r="F11" s="1">
-        <v>239941</v>
-      </c>
-      <c r="G11">
-        <v>115</v>
-      </c>
-      <c r="H11" s="1">
-        <v>41701</v>
-      </c>
-      <c r="I11">
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4770000</v>
-      </c>
-      <c r="C12">
-        <v>155.4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4499953</v>
-      </c>
-      <c r="E12">
-        <v>94.3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4580000</v>
-      </c>
-      <c r="G12">
-        <v>101.8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1374820</v>
-      </c>
-      <c r="I12">
-        <v>91.9</v>
+      <c r="B12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
